--- a/schedule_template.xlsx
+++ b/schedule_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1B178-D188-4BE9-98A0-922EFA07E840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDF5E1-55B5-4664-AA37-9A4DC240F7F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,15 +707,15 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
